--- a/data/trans_camb/IP11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP11-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 20,04</t>
+          <t>4,53; 18,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 5,34</t>
+          <t>-3,39; 5,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 4,9</t>
+          <t>-5,68; 3,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 5,15</t>
+          <t>-5,32; 4,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 5,11</t>
+          <t>-5,7; 5,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 2,44</t>
+          <t>-7,05; 2,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 10,29</t>
+          <t>1,32; 9,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,83</t>
+          <t>-3,44; 4,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 1,75</t>
+          <t>-4,94; 1,66</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,11; 1887,02</t>
+          <t>50,16; 1626,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-88,26; 558,57</t>
+          <t>-78,11; inf</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-73,21; 313,08</t>
+          <t>-76,37; 239,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,56; 251,18</t>
+          <t>-86,67; 248,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 146,45</t>
+          <t>-100,0; 264,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,74; 465,44</t>
+          <t>14,41; 385,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 180,81</t>
+          <t>-63,23; 197,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-92,13; 135,68</t>
+          <t>-100,0; 102,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 4,58</t>
+          <t>-1,44; 4,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,39</t>
+          <t>-3,68; 1,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; -2,5</t>
+          <t>-7,34; -2,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,24</t>
+          <t>0,67; 6,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 0,59</t>
+          <t>-3,86; 0,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; -0,56</t>
+          <t>-4,63; -0,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,47</t>
+          <t>0,37; 4,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 0,23</t>
+          <t>-3,16; 0,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; -2,24</t>
+          <t>-5,35; -2,26</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 72,24</t>
+          <t>-15,99; 69,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,6; 23,82</t>
+          <t>-41,33; 21,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,62; -37,63</t>
+          <t>-78,67; -37,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,57; 170,08</t>
+          <t>6,12; 152,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,34; 16,07</t>
+          <t>-61,61; 16,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,49; -8,71</t>
+          <t>-74,21; -12,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,5; 81,63</t>
+          <t>5,23; 78,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,35; 4,44</t>
+          <t>-41,73; 5,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,34; -39,52</t>
+          <t>-72,54; -40,6</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 10,25</t>
+          <t>0,53; 10,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,84</t>
+          <t>-3,98; 2,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,84</t>
+          <t>-3,45; 3,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 4,27</t>
+          <t>-4,03; 4,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 0,0</t>
+          <t>-6,93; -0,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 1,43</t>
+          <t>-6,26; 1,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,59</t>
+          <t>-0,36; 5,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 0,23</t>
+          <t>-4,39; 0,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,63</t>
+          <t>-3,72; 1,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 409,73</t>
+          <t>0,17; 377,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,81; 124,4</t>
+          <t>-65,24; 102,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,71; 179,03</t>
+          <t>-59,37; 159,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-52,3; 116,49</t>
+          <t>-51,45; 113,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-83,65; 12,38</t>
+          <t>-85,02; 5,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-78,35; 59,53</t>
+          <t>-78,31; 54,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 144,44</t>
+          <t>-6,72; 143,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-66,77; 10,97</t>
+          <t>-65,66; 13,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,16; 49,68</t>
+          <t>-59,71; 53,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,65</t>
+          <t>0,97; 5,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,01</t>
+          <t>-2,84; 1,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -1,53</t>
+          <t>-5,21; -1,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,16</t>
+          <t>-0,01; 4,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -0,19</t>
+          <t>-3,57; -0,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -0,79</t>
+          <t>-4,2; -0,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,24</t>
+          <t>1,1; 4,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,12</t>
+          <t>-2,56; -0,08</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -1,7</t>
+          <t>-4,33; -1,75</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>12,7; 104,18</t>
+          <t>12,83; 107,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-39,48; 18,52</t>
+          <t>-38,42; 20,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,38; -24,99</t>
+          <t>-69,24; -24,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,12; 97,1</t>
+          <t>-0,77; 101,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,84; -1,83</t>
+          <t>-57,04; -0,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-69,82; -18,82</t>
+          <t>-67,76; -16,74</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>16,82; 83,63</t>
+          <t>15,6; 82,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-44,0; -1,98</t>
+          <t>-40,11; -1,01</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-63,59; -33,77</t>
+          <t>-64,96; -32,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP11-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,16; 4,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,39; 5,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; 1,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,05; 19,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 4,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; 6,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 10,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 3,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 2,06</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>346,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>138,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,74%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-75,73; 270,61</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-80,95; 403,31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 254,19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>47,06; 1449,77</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-90,6; 472,35</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,12; 447,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,94; 162,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,38; 158,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,33</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-3,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 18,83</t>
+          <t>0,35; 5,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 5,6</t>
+          <t>-3,76; 0,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 3,78</t>
+          <t>-4,88; -0,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 4,39</t>
+          <t>-1,64; 4,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 5,18</t>
+          <t>-3,89; 1,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 2,59</t>
+          <t>-7,37; -2,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 9,75</t>
+          <t>0,22; 4,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,13</t>
+          <t>-3,22; 0,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 1,66</t>
+          <t>-5,43; -2,23</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>346,57%</t>
+          <t>66,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>-30,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-46,07%</t>
+          <t>-52,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,61%</t>
+          <t>-16,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-53,43%</t>
+          <t>-63,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>138,12%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-23,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-50,83%</t>
+          <t>-59,31%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,16; 1626,95</t>
+          <t>4,82; 153,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-78,11; inf</t>
+          <t>-60,2; 13,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,06; -11,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,37; 239,24</t>
+          <t>-18,04; 64,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,67; 248,53</t>
+          <t>-42,71; 19,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 264,33</t>
+          <t>-79,5; -40,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,41; 385,08</t>
+          <t>2,91; 76,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,23; 197,73</t>
+          <t>-43,54; 6,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 102,36</t>
+          <t>-72,85; -39,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>-1,19</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,15</t>
+          <t>-4,19; 4,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 1,35</t>
+          <t>-6,74; -0,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; -2,66</t>
+          <t>-6,13; 1,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,02</t>
+          <t>1,01; 9,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,56</t>
+          <t>-4,59; 2,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,63; -0,61</t>
+          <t>-3,63; 4,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,29</t>
+          <t>-0,55; 5,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 0,24</t>
+          <t>-4,43; 0,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; -2,26</t>
+          <t>-3,87; 1,55</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,91%</t>
+          <t>-55,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-63,26%</t>
+          <t>-42,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>66,07%</t>
+          <t>116,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-30,84%</t>
+          <t>-14,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-51,56%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>35,13%</t>
+          <t>48,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-23,12%</t>
+          <t>-38,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-59,08%</t>
+          <t>-23,34%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 69,57</t>
+          <t>-52,62; 107,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,33; 21,47</t>
+          <t>-83,38; 4,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,67; -37,29</t>
+          <t>-75,77; 53,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,12; 152,28</t>
+          <t>8,69; 414,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,61; 16,68</t>
+          <t>-70,49; 125,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,21; -12,67</t>
+          <t>-63,92; 190,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,23; 78,18</t>
+          <t>-10,48; 147,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 5,9</t>
+          <t>-68,59; 24,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,54; -40,6</t>
+          <t>-62,27; 45,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-2,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 10,08</t>
+          <t>-0,05; 4,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 2,48</t>
+          <t>-3,79; -0,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,88</t>
+          <t>-4,4; -0,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 4,17</t>
+          <t>1,07; 5,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -0,06</t>
+          <t>-3,09; 0,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 1,57</t>
+          <t>-5,34; -1,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 5,28</t>
+          <t>1,26; 4,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,37</t>
+          <t>-2,75; -0,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 1,79</t>
+          <t>-4,23; -1,6</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>116,75%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,84%</t>
+          <t>-35,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>-50,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>51,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-55,72%</t>
+          <t>-15,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-42,1%</t>
+          <t>-50,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>48,73%</t>
+          <t>46,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-38,4%</t>
+          <t>-23,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>-50,45%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 377,63</t>
+          <t>-1,32; 95,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-65,24; 102,74</t>
+          <t>-60,67; -3,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-59,37; 159,4</t>
+          <t>-70,97; -21,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,45; 113,88</t>
+          <t>11,61; 101,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-85,02; 5,38</t>
+          <t>-40,37; 16,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-78,31; 54,33</t>
+          <t>-69,93; -25,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 143,74</t>
+          <t>19,29; 82,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,66; 13,26</t>
+          <t>-41,93; -2,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 53,95</t>
+          <t>-64,67; -31,12</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-3,35</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,86</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-2,55</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-1,4</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-2,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 5,81</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 1,12</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-5,21; -1,55</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 4,18</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; -0,15</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; -0,78</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 4,33</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; -0,08</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; -1,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>51,76%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-14,92%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-51,97%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>40,31%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-35,79%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-49,21%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>46,77%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-23,94%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-50,69%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>12,83; 107,84</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-38,42; 20,07</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-69,24; -24,94</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 101,52</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-57,04; -0,86</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-67,76; -16,74</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>15,6; 82,46</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-40,11; -1,01</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-64,96; -32,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
